--- a/outputs-HGR-r202/f__CAG-288.xlsx
+++ b/outputs-HGR-r202/f__CAG-288.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,23 +543,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40025.fa</t>
+          <t>even_MAG-GUT42613.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.795206367928144e-14</v>
+        <v>9.533520110412474e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9871185871545769</v>
+        <v>0.9972609740046772</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001540150305312568</v>
+        <v>9.364569838893344e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01272739781479392</v>
+        <v>0.002645380296838645</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9871185871545769</v>
+        <v>0.9972609740046772</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,318 +575,126 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42613.fa</t>
+          <t>even_MAG-GUT43773.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.533520110412474e-14</v>
+        <v>0.9808401178401019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9972609740046772</v>
+        <v>0.01188436424417748</v>
       </c>
       <c r="D5" t="n">
-        <v>9.364569838893344e-05</v>
+        <v>0.002527216823458195</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002645380296838645</v>
+        <v>0.004748301092262428</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9972609740046772</v>
+        <v>0.9808401178401019</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>g__CAG-345</t>
+          <t>g__CAG-288</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>g__CAG-345</t>
+          <t>g__CAG-288</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43773.fa</t>
+          <t>even_MAG-GUT48445.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9808401178401019</v>
+        <v>2.065594892249896e-13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01188436424417748</v>
+        <v>0.9958957397040334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002527216823458195</v>
+        <v>0.0001701093237928282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004748301092262428</v>
+        <v>0.003934150971967138</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9808401178401019</v>
+        <v>0.9958957397040334</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>g__CAG-288</t>
+          <t>g__CAG-345</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>g__CAG-288</t>
+          <t>g__CAG-345</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48445.fa</t>
+          <t>even_MAG-GUT66322.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.065594892249896e-13</v>
+        <v>0.6209217005757158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9958957397040334</v>
+        <v>0.3783123965330445</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001701093237928282</v>
+        <v>0.0003711430870956171</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003934150971967138</v>
+        <v>0.0003947598041439781</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9958957397040334</v>
+        <v>0.6209217005757158</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>g__CAG-345</t>
+          <t>g__CAG-288</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>g__CAG-345</t>
+          <t>g__CAG-288(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65576.fa</t>
+          <t>even_MAG-GUT71751.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.795206367928144e-14</v>
+        <v>0.9594734103666482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9871185871545769</v>
+        <v>0.004140631711614469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001540150305312568</v>
+        <v>0.003655432361562402</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01272739781479392</v>
+        <v>0.03273052556017501</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9871185871545769</v>
+        <v>0.9594734103666482</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>g__CAG-345</t>
+          <t>g__CAG-288</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>g__CAG-345</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66322.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6209217005757158</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3783123965330445</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0003711430870956171</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0003947598041439781</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.6209217005757158</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>g__CAG-288</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>g__CAG-288(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66330.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.361594559455449e-13</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9873847806137219</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0003452386562466323</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01226998072989522</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9873847806137219</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>g__CAG-345</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>g__CAG-345</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66408.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9801026240745088</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001138581685983297</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.01856033299411695</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0001984612453907577</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9801026240745088</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>g__CAG-288</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>g__CAG-288</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70620.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.074489820850691e-13</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9723158474957848</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.001538570096636792</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.02614558240727086</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9723158474957848</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>g__CAG-345</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>g__CAG-345</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70664.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9892003591345877</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003999657104587251</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.003541472420884672</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.003258511339940224</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9892003591345877</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>g__CAG-288</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>g__CAG-288</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71751.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9594734103666482</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.004140631711614469</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.003655432361562402</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.03273052556017501</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9594734103666482</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>g__CAG-288</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>g__CAG-288</t>
         </is>

--- a/outputs-HGR-r202/f__CAG-288.xlsx
+++ b/outputs-HGR-r202/f__CAG-288.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>g__UBA7642</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>g__UBA7642</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>g__UBA7642</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g__UBA7642</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>g__CAG-345</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>g__CAG-345</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>g__CAG-345</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>g__CAG-345</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>g__CAG-345</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>g__CAG-345</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>g__CAG-288</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>g__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>g__CAG-345</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>g__CAG-345</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>g__CAG-345</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>g__CAG-345</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>g__CAG-345</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>g__CAG-345</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>g__CAG-288</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>g__CAG-288(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>g__CAG-345</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>g__CAG-345</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>g__CAG-288</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>g__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>g__CAG-345</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>g__CAG-345</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>g__CAG-288</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>g__CAG-288</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -871,6 +946,11 @@
         <v>0.9594734103666482</v>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>g__CAG-288</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>g__CAG-288</t>
         </is>

--- a/outputs-HGR-r202/f__CAG-288.xlsx
+++ b/outputs-HGR-r202/f__CAG-288.xlsx
@@ -792,7 +792,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>g__CAG-288</t>
+          <t>g__CAG-288(reject)</t>
         </is>
       </c>
     </row>
